--- a/Statistical analyses/Tukey posthoc/BG/Vmax, timePoint.xlsx
+++ b/Statistical analyses/Tukey posthoc/BG/Vmax, timePoint.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">group1 group2 meandiff p-adj lower upper reject </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 3 0.2922 0.1927 -0.0903 0.6746 False </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 5 0.1666 0.6418 -0.2159 0.5491 False </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 6 -0.081 0.9 -0.4635 0.3014 False </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 5 -0.1256 0.799 -0.508 0.2569 False </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 6 -0.3732 0.0584 -0.7557 0.0093 False </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 6 -0.2476 0.3271 -0.6301 0.1348 False </t>
+    <t>group1</t>
+  </si>
+  <si>
+    <t>group2</t>
+  </si>
+  <si>
+    <t>meandiff</t>
+  </si>
+  <si>
+    <t>p-adj</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>reject</t>
   </si>
 </sst>
 </file>
@@ -392,45 +392,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.2922</v>
+      </c>
+      <c r="D2">
+        <v>0.1927</v>
+      </c>
+      <c r="E2">
+        <v>-0.09030000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.6746</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.1666</v>
+      </c>
+      <c r="D3">
+        <v>0.6418</v>
+      </c>
+      <c r="E3">
+        <v>-0.2159</v>
+      </c>
+      <c r="F3">
+        <v>0.5491</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>-0.081</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>-0.4635</v>
+      </c>
+      <c r="F4">
+        <v>0.3014</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>-0.1256</v>
+      </c>
+      <c r="D5">
+        <v>0.799</v>
+      </c>
+      <c r="E5">
+        <v>-0.508</v>
+      </c>
+      <c r="F5">
+        <v>0.2569</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>-0.3732</v>
+      </c>
+      <c r="D6">
+        <v>0.0584</v>
+      </c>
+      <c r="E6">
+        <v>-0.7557</v>
+      </c>
+      <c r="F6">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>-0.2476</v>
+      </c>
+      <c r="D7">
+        <v>0.3271</v>
+      </c>
+      <c r="E7">
+        <v>-0.6301</v>
+      </c>
+      <c r="F7">
+        <v>0.1348</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
